--- a/Documentation/Reports/Report-All-Week.xlsx
+++ b/Documentation/Reports/Report-All-Week.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Report Week 1`" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Report Week 5" sheetId="5" r:id="rId5"/>
     <sheet name="Report Week 6" sheetId="6" r:id="rId6"/>
     <sheet name="Report Week 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Report Week 8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Nội Dung</t>
   </si>
@@ -149,6 +150,17 @@
   </si>
   <si>
     <t>Nhóm khá nát về mặt code , chưa có exp làm bao giờ . Nên đang nhờ Support hỗ trợ tối đa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thành bản Alpha
+</t>
+  </si>
+  <si>
+    <t>Hoàn thành Front-End</t>
+  </si>
+  <si>
+    <t>Code Back đang gặp khó khăn vì team toàn ngu, cơ mà đang cố ạ
+Đag cố viết cho bản Alpha ạ</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,4 +1167,88 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>